--- a/Simulasi/Gambar/Variasi ICA/result.xlsx
+++ b/Simulasi/Gambar/Variasi ICA/result.xlsx
@@ -490,31 +490,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.37</v>
+        <v>3.4</v>
       </c>
       <c r="C2" t="n">
-        <v>6.525</v>
+        <v>4.825</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="E2" t="n">
-        <v>4.1</v>
+        <v>4.445</v>
       </c>
       <c r="F2" t="n">
-        <v>5.04</v>
+        <v>5.89</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.48</v>
+        <v>0.545</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>4.485</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="3">
@@ -522,31 +522,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.65</v>
+        <v>4.23</v>
       </c>
       <c r="C3" t="n">
-        <v>6.55</v>
+        <v>5.01</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E3" t="n">
-        <v>5.605</v>
+        <v>4.325</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>5.54</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>4.57</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="4">
@@ -554,31 +554,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.84</v>
+        <v>3.905</v>
       </c>
       <c r="C4" t="n">
-        <v>6.79</v>
+        <v>4.41</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E4" t="n">
-        <v>4.52</v>
+        <v>4.49</v>
       </c>
       <c r="F4" t="n">
-        <v>5.875</v>
+        <v>5.86</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6</v>
+        <v>1.02</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>4.235</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -586,31 +586,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.325</v>
+        <v>3.935</v>
       </c>
       <c r="C5" t="n">
-        <v>5.36</v>
+        <v>4.55</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E5" t="n">
-        <v>4.13</v>
+        <v>4.54</v>
       </c>
       <c r="F5" t="n">
-        <v>5.125</v>
+        <v>6.325</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.535</v>
+        <v>1.155</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>4.305</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3.565</v>
+        <v>4.18</v>
       </c>
       <c r="C6" t="n">
-        <v>5.175</v>
+        <v>5.825</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="E6" t="n">
-        <v>4.445</v>
+        <v>4.455</v>
       </c>
       <c r="F6" t="n">
-        <v>5.89</v>
+        <v>5.855</v>
       </c>
       <c r="G6" t="n">
         <v>0.002</v>
       </c>
       <c r="H6" t="n">
-        <v>0.595</v>
+        <v>0.38</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>4.37</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Gambar/Variasi ICA/result.xlsx
+++ b/Simulasi/Gambar/Variasi ICA/result.xlsx
@@ -490,31 +490,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.4</v>
+        <v>0.885</v>
       </c>
       <c r="C2" t="n">
-        <v>4.825</v>
+        <v>6.62</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="E2" t="n">
-        <v>4.445</v>
+        <v>4.735</v>
       </c>
       <c r="F2" t="n">
-        <v>5.89</v>
+        <v>7.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H2" t="n">
-        <v>0.545</v>
+        <v>0.555</v>
       </c>
       <c r="I2" t="n">
-        <v>4.485</v>
+        <v>6.95</v>
       </c>
       <c r="J2" t="n">
-        <v>0.101</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="3">
@@ -522,31 +522,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.23</v>
+        <v>4.295</v>
       </c>
       <c r="C3" t="n">
-        <v>5.01</v>
+        <v>4.7</v>
       </c>
       <c r="D3" t="n">
         <v>0.005</v>
       </c>
       <c r="E3" t="n">
-        <v>4.325</v>
+        <v>4.425</v>
       </c>
       <c r="F3" t="n">
-        <v>5.54</v>
+        <v>5.67</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H3" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="I3" t="n">
-        <v>4.57</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>0.111</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="4">
@@ -554,31 +554,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.905</v>
+        <v>4.445</v>
       </c>
       <c r="C4" t="n">
-        <v>4.41</v>
+        <v>5.935</v>
       </c>
       <c r="D4" t="n">
         <v>0.003</v>
       </c>
       <c r="E4" t="n">
-        <v>4.49</v>
+        <v>4.585</v>
       </c>
       <c r="F4" t="n">
-        <v>5.86</v>
+        <v>6.265</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02</v>
+        <v>0.42</v>
       </c>
       <c r="I4" t="n">
-        <v>4.235</v>
+        <v>5.385</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="5">
@@ -586,31 +586,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3.935</v>
+        <v>3.09</v>
       </c>
       <c r="C5" t="n">
-        <v>4.55</v>
+        <v>8.885</v>
       </c>
       <c r="D5" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.515</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.004</v>
       </c>
-      <c r="E5" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.325</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.001</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.155</v>
+        <v>0.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.305</v>
+        <v>1.85</v>
       </c>
       <c r="J5" t="n">
-        <v>0.089</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4.18</v>
+        <v>3.615</v>
       </c>
       <c r="C6" t="n">
-        <v>5.825</v>
+        <v>5.56</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E6" t="n">
-        <v>4.455</v>
+        <v>3.98</v>
       </c>
       <c r="F6" t="n">
-        <v>5.855</v>
+        <v>4.81</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="H6" t="n">
-        <v>0.38</v>
+        <v>0.65</v>
       </c>
       <c r="I6" t="n">
-        <v>4.37</v>
+        <v>3.88</v>
       </c>
       <c r="J6" t="n">
-        <v>0.099</v>
+        <v>0.122</v>
       </c>
     </row>
   </sheetData>
